--- a/biology/Médecine/Hauteur_utérine/Hauteur_utérine.xlsx
+++ b/biology/Médecine/Hauteur_utérine/Hauteur_utérine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Hauteur_ut%C3%A9rine</t>
+          <t>Hauteur_utérine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En obstétrique, la hauteur utérine est un élément de dépistage clinique, qui permet d'évaluer la croissance du fœtus et le développement de l'utérus, du placenta, et du liquide amniotique au cours de la grossesse.
 Elle se mesure à l'aide d'un mètre-ruban, de la symphyse pubienne jusqu'au fond utérin (repéré par la palpation manuelle). Elle est difficile à mesurer, parfois trompeuse en fonction de la corpulence maternelle, et reste opérateur dépendant.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Hauteur_ut%C3%A9rine</t>
+          <t>Hauteur_utérine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Hauteur utérine normale selon le terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Normalement pour une grossesse monofoetale:
 Entre 4 et 7 mois, HU (cm) = Mois de grossesse x 4
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hauteur_ut%C3%A9rine</t>
+          <t>Hauteur_utérine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Anomalie de la Hauteur utérine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans tous les cas, dans le cas d'une grossesse ou le terme est relativement connu, une anomalie de hauteur utérine (insuffisante ou excessive) peut faire suspecter des anomalies de croissance du fœtus (retard de croissance intra utérin ou macrosomie), ainsi que des anomalies de quantité de liquide amniotique (oligohydramnios ou polyhydramnios).
 NB : Les valeurs indiquées ci-dessus ne s'appliquent pas pour les grossesse multiples pour lesquelles les valeurs sont forcément augmentées.
